--- a/biology/Histoire de la zoologie et de la botanique/Jean-Michel_Mazin/Jean-Michel_Mazin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Michel_Mazin/Jean-Michel_Mazin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel Mazin, né le 5 avril 1950[1], est un paléontologue français. Il est directeur de recherche au CNRS au laboratoire paléoenvironnement et paléobiosphère de l'université Claude-Bernard, à Lyon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Mazin, né le 5 avril 1950, est un paléontologue français. Il est directeur de recherche au CNRS au laboratoire paléoenvironnement et paléobiosphère de l'université Claude-Bernard, à Lyon.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>directeur de recherche au CNRS à l’Université de Poitiers
 puis directeur de recherche au laboratoire paléoenvironnement et paléobiosphère de l'université Claude-Bernard, à Lyon</t>
@@ -542,11 +556,13 @@
           <t>Travaux sur le terrain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À partir de 1995, fouilles sur la plage aux ptérosaures à Crayssac, près de Cahors, sur le site paléontologique constitué par une plage fossile, vieille de 140 Ma sur laquelle, marée après marée se sont imprimées les traces d'animaux depuis longtemps disparus. L'équipe du paléontologue Jean-Michel Mazin a souvent travaillé de nuit à la lumière rasante des projecteurs pour mieux voir les empreintes[2],[3].
-De 2002 à 2007 fouilles du site paléontologique de Champblanc, à Cherves-Richemont en Charente, lagune tropicale très riche en restes de la période charnière entre le Jurassique et le Crétacé[4].
-De juin 2007 à 2009, à proximité du petit village de Loulle, dans le Jura début des fouilles sur un site d'une surface d'environ 3 000 mètres carrés, datant de 140 Ma et qui présente plusieurs centaines de traces de pas de sauropodes[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À partir de 1995, fouilles sur la plage aux ptérosaures à Crayssac, près de Cahors, sur le site paléontologique constitué par une plage fossile, vieille de 140 Ma sur laquelle, marée après marée se sont imprimées les traces d'animaux depuis longtemps disparus. L'équipe du paléontologue Jean-Michel Mazin a souvent travaillé de nuit à la lumière rasante des projecteurs pour mieux voir les empreintes,.
+De 2002 à 2007 fouilles du site paléontologique de Champblanc, à Cherves-Richemont en Charente, lagune tropicale très riche en restes de la période charnière entre le Jurassique et le Crétacé.
+De juin 2007 à 2009, à proximité du petit village de Loulle, dans le Jura début des fouilles sur un site d'une surface d'environ 3 000 mètres carrés, datant de 140 Ma et qui présente plusieurs centaines de traces de pas de sauropodes,.
 De 2010 à 2012, en collaboration avec le géologue Pierre Hantzpergue de l'Université Claude Bernard de Lyon, il fouille un autre site à empreintes de sauropodes situé sur la commune de Plagne près de Bellegarde.
 En 2011 et 2012, il codirige avec Joane Puech, Ronan Allain et Jean-François Tournepiche la fouille du site paléontologique d'Angeac en Charente.</t>
         </is>
